--- a/src/assets/docx/Sozu_Agencies_Sample.xlsx
+++ b/src/assets/docx/Sozu_Agencies_Sample.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="517">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -35,6 +35,15 @@
   </si>
   <si>
     <t xml:space="preserve">Contact number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Razon Social</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name of incharge</t>
   </si>
   <si>
     <t xml:space="preserve">Email ID</t>
@@ -1650,7 +1659,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1664,10 +1673,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1688,25 +1693,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I170"/>
+  <dimension ref="A1:L170"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="D22" activeCellId="0" sqref="D22"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="15.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="45.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="14.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="6" style="0" width="21.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="45.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="14.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1728,14 +1733,23 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1743,22 +1757,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E2" s="3" t="n">
         <v>3331201111</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>12</v>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1766,22 +1783,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>3336425065</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>15</v>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1789,22 +1809,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>3336296900</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>18</v>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1812,22 +1835,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>3331674233</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>21</v>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1835,22 +1861,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>3331677942</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>24</v>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1858,22 +1887,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>3312653969</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>27</v>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1881,22 +1913,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>3331229453</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>30</v>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1904,22 +1939,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>3313979274</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>33</v>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1927,22 +1965,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>3767665122</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>36</v>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1950,22 +1991,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>3312806283</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>39</v>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1973,22 +2017,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>3331462296</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>42</v>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1996,22 +2043,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>3315137709</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>45</v>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2019,22 +2069,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>3334581184</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>48</v>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2042,22 +2095,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>3338320000</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>51</v>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2065,22 +2121,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>3331059216</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>54</v>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2088,22 +2147,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>3310180831</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>57</v>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2111,22 +2173,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>3310200820</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>60</v>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2134,22 +2199,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>3336400635</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>63</v>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2157,22 +2225,25 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C20" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>3331231043</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>66</v>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2180,22 +2251,25 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C21" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>3310191581</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>69</v>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2203,22 +2277,25 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C22" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>3336319259</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>72</v>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2226,22 +2303,25 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C23" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>3330707333</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>75</v>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2249,22 +2329,25 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C24" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>3338413899</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>78</v>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2272,22 +2355,25 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C25" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E25" s="2" t="n">
         <v>3335763935</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>81</v>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2295,22 +2381,25 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C26" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>3336154423</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>84</v>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2318,22 +2407,25 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C27" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>3331285326</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>87</v>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2341,22 +2433,25 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C28" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>6671205570</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>90</v>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2364,22 +2459,25 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C29" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E29" s="2" t="n">
         <v>3336428203</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>93</v>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2387,22 +2485,25 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C30" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>3317588671</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>96</v>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2410,22 +2511,25 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C31" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>3323427820</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>99</v>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2433,22 +2537,25 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C32" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>3337493815</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>102</v>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2456,22 +2563,25 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C33" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E33" s="2" t="n">
         <v>3333804724</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>105</v>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2479,22 +2589,25 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C34" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>3336156905</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>108</v>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2502,22 +2615,25 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C35" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E35" s="2" t="n">
         <v>3331413457</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>111</v>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2525,22 +2641,25 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C36" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E36" s="2" t="n">
         <v>3310608206</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>114</v>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2548,22 +2667,25 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C37" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E37" s="2" t="n">
         <v>3333444072</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>117</v>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2571,22 +2693,25 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C38" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E38" s="2" t="n">
         <v>3324719942</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>120</v>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2594,22 +2719,25 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C39" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E39" s="2" t="n">
         <v>3338271540</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>123</v>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2617,22 +2745,25 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C40" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E40" s="2" t="n">
         <v>3336477655</v>
       </c>
-      <c r="F40" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>126</v>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2640,22 +2771,25 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C41" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E41" s="2" t="n">
         <v>3312856255</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>129</v>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2663,22 +2797,25 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C42" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E42" s="2" t="n">
         <v>3324710155</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>132</v>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2686,22 +2823,25 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C43" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E43" s="2" t="n">
         <v>3336305698</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>135</v>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2709,22 +2849,25 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C44" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E44" s="2" t="n">
         <v>3767662613</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>138</v>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2732,22 +2875,25 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C45" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E45" s="2" t="n">
         <v>3336323525</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>141</v>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2755,22 +2901,25 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C46" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E46" s="2" t="n">
         <v>3331101545</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>144</v>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2778,22 +2927,25 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C47" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E47" s="2" t="n">
         <v>3311536479</v>
       </c>
-      <c r="F47" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>147</v>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2801,22 +2953,25 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C48" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E48" s="2" t="n">
         <v>3336113399</v>
       </c>
-      <c r="F48" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>150</v>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2824,22 +2979,25 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C49" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E49" s="2" t="n">
         <v>3330700300</v>
       </c>
-      <c r="F49" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>153</v>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2847,22 +3005,25 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C50" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E50" s="2" t="n">
         <v>3331210075</v>
       </c>
-      <c r="F50" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>156</v>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2870,22 +3031,25 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C51" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E51" s="2" t="n">
         <v>3315815055</v>
       </c>
-      <c r="F51" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>159</v>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2893,22 +3057,25 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C52" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E52" s="2" t="n">
         <v>3336296555</v>
       </c>
-      <c r="F52" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>162</v>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2916,22 +3083,25 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C53" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E53" s="2" t="n">
         <v>3313139052</v>
       </c>
-      <c r="F53" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>165</v>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2939,22 +3109,25 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E54" s="2" t="n">
         <v>3320149095</v>
       </c>
-      <c r="F54" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>168</v>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2962,22 +3135,25 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C55" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E55" s="2" t="n">
         <v>3310205058</v>
       </c>
-      <c r="F55" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>171</v>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2985,22 +3161,25 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C56" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E56" s="2" t="n">
         <v>3331102077</v>
       </c>
-      <c r="F56" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>174</v>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3008,22 +3187,25 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C57" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E57" s="2" t="n">
         <v>3338174323</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>177</v>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3031,22 +3213,25 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C58" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E58" s="2" t="n">
         <v>3339524549</v>
       </c>
-      <c r="F58" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>180</v>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3054,22 +3239,25 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C59" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E59" s="2" t="n">
         <v>3337002807</v>
       </c>
-      <c r="F59" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>183</v>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3077,22 +3265,25 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C60" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E60" s="2" t="n">
         <v>3333313042</v>
       </c>
-      <c r="F60" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>186</v>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3100,22 +3291,25 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C61" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E61" s="2" t="n">
         <v>3338174432</v>
       </c>
-      <c r="F61" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>189</v>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3123,22 +3317,25 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C62" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E62" s="2" t="n">
         <v>3339554353</v>
       </c>
-      <c r="F62" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>192</v>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3146,22 +3343,25 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C63" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E63" s="2" t="n">
         <v>3338143382</v>
       </c>
-      <c r="F63" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>195</v>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3169,22 +3369,25 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C64" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E64" s="2" t="n">
         <v>3380000436</v>
       </c>
-      <c r="F64" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>198</v>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3192,22 +3395,25 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C65" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E65" s="2" t="n">
         <v>3331480982</v>
       </c>
-      <c r="F65" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>201</v>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3215,22 +3421,25 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C66" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E66" s="2" t="n">
         <v>3315620580</v>
       </c>
-      <c r="F66" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>204</v>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3238,22 +3447,25 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C67" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E67" s="2" t="n">
         <v>3331335490</v>
       </c>
-      <c r="F67" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>207</v>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3261,19 +3473,22 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C68" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E68" s="2" t="n">
         <v>3344447570</v>
       </c>
-      <c r="F68" s="2" t="s">
-        <v>209</v>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3281,22 +3496,25 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C69" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E69" s="2" t="n">
         <v>3335893474</v>
       </c>
-      <c r="F69" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>212</v>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3304,22 +3522,25 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C70" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E70" s="2" t="n">
         <v>3317011980</v>
       </c>
-      <c r="F70" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>215</v>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3327,22 +3548,25 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C71" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E71" s="2" t="n">
         <v>3336780334</v>
       </c>
-      <c r="F71" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>218</v>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3350,22 +3574,25 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C72" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E72" s="2" t="n">
         <v>3336156743</v>
       </c>
-      <c r="F72" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>221</v>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3373,22 +3600,25 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C73" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E73" s="2" t="n">
         <v>3336732616</v>
       </c>
-      <c r="F73" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>224</v>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3396,22 +3626,25 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C74" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E74" s="2" t="n">
         <v>3310779115</v>
       </c>
-      <c r="F74" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>227</v>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3419,22 +3652,25 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C75" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E75" s="2" t="n">
         <v>3336737940</v>
       </c>
-      <c r="F75" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>230</v>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3442,22 +3678,25 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C76" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E76" s="2" t="n">
         <v>3314985349</v>
       </c>
-      <c r="F76" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>233</v>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3465,22 +3704,25 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C77" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E77" s="2" t="n">
         <v>3338260152</v>
       </c>
-      <c r="F77" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>236</v>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3488,22 +3730,25 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C78" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E78" s="2" t="n">
         <v>3333363198</v>
       </c>
-      <c r="F78" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>239</v>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3511,22 +3756,25 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C79" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E79" s="2" t="n">
         <v>3336113439</v>
       </c>
-      <c r="F79" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>242</v>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3534,22 +3782,25 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C80" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E80" s="2" t="n">
         <v>3338170205</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>245</v>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3557,22 +3808,25 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C81" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E81" s="2" t="n">
         <v>3331202031</v>
       </c>
-      <c r="F81" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>248</v>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3580,22 +3834,25 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C82" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E82" s="2" t="n">
         <v>3336158043</v>
       </c>
-      <c r="F82" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>251</v>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3603,22 +3860,25 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C83" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E83" s="2" t="n">
         <v>3335702034</v>
       </c>
-      <c r="F83" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>254</v>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3626,22 +3886,25 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C84" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E84" s="2" t="n">
         <v>3336770052</v>
       </c>
-      <c r="F84" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>257</v>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3649,22 +3912,25 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C85" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E85" s="2" t="n">
         <v>3338255631</v>
       </c>
-      <c r="F85" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>260</v>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3672,22 +3938,25 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C86" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E86" s="2" t="n">
         <v>3312970588</v>
       </c>
-      <c r="F86" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>263</v>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3695,22 +3964,25 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C87" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E87" s="2" t="n">
         <v>3331652999</v>
       </c>
-      <c r="F87" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>266</v>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3718,22 +3990,25 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C88" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E88" s="2" t="n">
         <v>3336152424</v>
       </c>
-      <c r="F88" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>269</v>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3741,22 +4016,25 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C89" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E89" s="2" t="n">
         <v>3336276438</v>
       </c>
-      <c r="F89" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>272</v>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3764,22 +4042,25 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C90" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E90" s="2" t="n">
         <v>3336325753</v>
       </c>
-      <c r="F90" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>275</v>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3787,22 +4068,25 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C91" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E91" s="2" t="n">
         <v>3339529935</v>
       </c>
-      <c r="F91" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>278</v>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3810,22 +4094,25 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C92" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E92" s="2" t="n">
         <v>3336734715</v>
       </c>
-      <c r="F92" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>281</v>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3833,22 +4120,25 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C93" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E93" s="2" t="n">
         <v>3318144444</v>
       </c>
-      <c r="F93" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>284</v>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3856,22 +4146,25 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C94" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E94" s="2" t="n">
         <v>3331274369</v>
       </c>
-      <c r="F94" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>287</v>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3879,22 +4172,25 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C95" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E95" s="2" t="n">
         <v>3334908049</v>
       </c>
-      <c r="F95" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>290</v>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3902,22 +4198,25 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C96" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E96" s="2" t="n">
         <v>3336100519</v>
       </c>
-      <c r="F96" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>293</v>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3925,22 +4224,25 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C97" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E97" s="2" t="n">
         <v>3312849064</v>
       </c>
-      <c r="F97" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>296</v>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3948,22 +4250,25 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C98" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E98" s="2" t="n">
         <v>3312556899</v>
       </c>
-      <c r="F98" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>299</v>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3971,22 +4276,25 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C99" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E99" s="2" t="n">
         <v>3330700583</v>
       </c>
-      <c r="F99" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>302</v>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3994,22 +4302,25 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C100" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E100" s="2" t="n">
         <v>3334961974</v>
       </c>
-      <c r="F100" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>305</v>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4017,22 +4328,25 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C101" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E101" s="2" t="n">
         <v>3336363214</v>
       </c>
-      <c r="F101" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>308</v>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4040,22 +4354,25 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C102" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E102" s="2" t="n">
         <v>3312525177</v>
       </c>
-      <c r="F102" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="H102" s="2" t="s">
-        <v>311</v>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4063,22 +4380,25 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C103" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E103" s="2" t="n">
         <v>3336477687</v>
       </c>
-      <c r="F103" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="H103" s="2" t="s">
-        <v>314</v>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4086,22 +4406,25 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C104" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E104" s="2" t="n">
         <v>3336100109</v>
       </c>
-      <c r="F104" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>317</v>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="K104" s="2" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4109,22 +4432,25 @@
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C105" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E105" s="2" t="n">
         <v>3319190934</v>
       </c>
-      <c r="F105" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>320</v>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4132,22 +4458,25 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C106" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E106" s="2" t="n">
         <v>3336771800</v>
       </c>
-      <c r="F106" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="H106" s="2" t="s">
-        <v>323</v>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4155,22 +4484,25 @@
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C107" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E107" s="2" t="n">
         <v>3320050949</v>
       </c>
-      <c r="F107" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>326</v>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4178,22 +4510,25 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C108" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E108" s="2" t="n">
         <v>3323327065</v>
       </c>
-      <c r="F108" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>329</v>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="K108" s="2" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4201,22 +4536,25 @@
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C109" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E109" s="2" t="n">
         <v>3323056620</v>
       </c>
-      <c r="F109" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>332</v>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="K109" s="2" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4224,22 +4562,25 @@
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C110" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E110" s="2" t="n">
         <v>3336275423</v>
       </c>
-      <c r="F110" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>335</v>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="K110" s="2" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4247,22 +4588,25 @@
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C111" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E111" s="2" t="n">
         <v>3336429492</v>
       </c>
-      <c r="F111" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>338</v>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="K111" s="2" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4270,22 +4614,25 @@
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C112" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E112" s="2" t="n">
         <v>3323865338</v>
       </c>
-      <c r="F112" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="H112" s="2" t="s">
-        <v>341</v>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="K112" s="2" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4293,22 +4640,25 @@
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C113" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E113" s="2" t="n">
         <v>3331901111</v>
       </c>
-      <c r="F113" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>344</v>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="K113" s="2" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4316,22 +4666,25 @@
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C114" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E114" s="2" t="n">
         <v>3331101400</v>
       </c>
-      <c r="F114" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>347</v>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="K114" s="2" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4339,22 +4692,25 @@
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C115" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E115" s="2" t="n">
         <v>3315809999</v>
       </c>
-      <c r="F115" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>350</v>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="K115" s="2" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4362,22 +4718,25 @@
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C116" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E116" s="2" t="n">
         <v>3331215581</v>
       </c>
-      <c r="F116" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="H116" s="2" t="s">
-        <v>353</v>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="K116" s="2" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4385,22 +4744,25 @@
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C117" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E117" s="2" t="n">
         <v>3337664530</v>
       </c>
-      <c r="F117" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="H117" s="2" t="s">
-        <v>356</v>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="K117" s="2" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4408,22 +4770,25 @@
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C118" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E118" s="2" t="n">
         <v>3767660387</v>
       </c>
-      <c r="F118" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="H118" s="2" t="s">
-        <v>359</v>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="K118" s="2" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4431,22 +4796,25 @@
         <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C119" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E119" s="2" t="n">
         <v>3336475056</v>
       </c>
-      <c r="F119" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="H119" s="2" t="s">
-        <v>362</v>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="K119" s="2" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4454,22 +4822,25 @@
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C120" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E120" s="2" t="n">
         <v>3331864351</v>
       </c>
-      <c r="F120" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="H120" s="2" t="s">
-        <v>365</v>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="K120" s="2" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4477,22 +4848,25 @@
         <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C121" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E121" s="2" t="n">
         <v>3323030719</v>
       </c>
-      <c r="F121" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>368</v>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="K121" s="2" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4500,22 +4874,25 @@
         <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C122" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E122" s="2" t="n">
         <v>3318113564</v>
       </c>
-      <c r="F122" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="H122" s="2" t="s">
-        <v>371</v>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="2"/>
+      <c r="I122" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="K122" s="2" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4523,22 +4900,25 @@
         <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C123" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E123" s="2" t="n">
         <v>3331148156</v>
       </c>
-      <c r="F123" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="H123" s="2" t="s">
-        <v>374</v>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="K123" s="2" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4546,22 +4926,25 @@
         <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C124" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E124" s="2" t="n">
         <v>3318626230</v>
       </c>
-      <c r="F124" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="H124" s="2" t="s">
-        <v>377</v>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
+      <c r="I124" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="K124" s="2" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4569,22 +4952,25 @@
         <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C125" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E125" s="2" t="n">
         <v>3338204934</v>
       </c>
-      <c r="F125" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="H125" s="2" t="s">
-        <v>380</v>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="K125" s="2" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4592,22 +4978,25 @@
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C126" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E126" s="2" t="n">
         <v>3396889088</v>
       </c>
-      <c r="F126" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>383</v>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="2"/>
+      <c r="I126" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="K126" s="2" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4615,22 +5004,25 @@
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C127" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E127" s="2" t="n">
         <v>3314083363</v>
       </c>
-      <c r="F127" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>386</v>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="K127" s="2" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4638,22 +5030,25 @@
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C128" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E128" s="2" t="n">
         <v>3331893375</v>
       </c>
-      <c r="F128" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>389</v>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="K128" s="2" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4661,22 +5056,25 @@
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C129" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E129" s="2" t="n">
         <v>3336248354</v>
       </c>
-      <c r="F129" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="H129" s="2" t="s">
-        <v>392</v>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="K129" s="2" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4684,22 +5082,25 @@
         <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C130" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E130" s="2" t="n">
         <v>3323051188</v>
       </c>
-      <c r="F130" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="H130" s="2" t="s">
-        <v>395</v>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
+      <c r="I130" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="K130" s="2" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4707,22 +5108,25 @@
         <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C131" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E131" s="2" t="n">
         <v>3312649684</v>
       </c>
-      <c r="F131" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="H131" s="2" t="s">
-        <v>398</v>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="K131" s="2" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4730,22 +5134,25 @@
         <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C132" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E132" s="2" t="n">
         <v>3314119746</v>
       </c>
-      <c r="F132" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>401</v>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="K132" s="2" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4753,22 +5160,25 @@
         <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C133" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E133" s="2" t="n">
         <v>3334925150</v>
       </c>
-      <c r="F133" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>404</v>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="2"/>
+      <c r="I133" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="K133" s="2" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4776,22 +5186,25 @@
         <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C134" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E134" s="2" t="n">
         <v>3316757755</v>
       </c>
-      <c r="F134" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="H134" s="2" t="s">
-        <v>407</v>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="2"/>
+      <c r="I134" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="K134" s="2" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4799,22 +5212,25 @@
         <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C135" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E135" s="2" t="n">
         <v>3323035037</v>
       </c>
-      <c r="F135" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="H135" s="2" t="s">
-        <v>410</v>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
+      <c r="I135" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="K135" s="2" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4822,22 +5238,25 @@
         <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C136" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E136" s="2" t="n">
         <v>3316990369</v>
       </c>
-      <c r="F136" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="H136" s="2" t="s">
-        <v>413</v>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+      <c r="I136" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="K136" s="2" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4845,22 +5264,25 @@
         <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C137" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E137" s="2" t="n">
         <v>3319458901</v>
       </c>
-      <c r="F137" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="H137" s="2" t="s">
-        <v>416</v>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="K137" s="2" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4868,22 +5290,25 @@
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C138" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E138" s="2" t="n">
         <v>3331275146</v>
       </c>
-      <c r="F138" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="H138" s="2" t="s">
-        <v>54</v>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="2"/>
+      <c r="I138" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="K138" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4891,22 +5316,25 @@
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C139" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E139" s="2" t="n">
         <v>3338175403</v>
       </c>
-      <c r="F139" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="H139" s="2" t="s">
-        <v>421</v>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="2"/>
+      <c r="I139" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="K139" s="2" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4914,22 +5342,25 @@
         <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C140" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E140" s="2" t="n">
         <v>3316000206</v>
       </c>
-      <c r="F140" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="H140" s="2" t="s">
-        <v>424</v>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2"/>
+      <c r="H140" s="2"/>
+      <c r="I140" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="K140" s="2" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4937,22 +5368,25 @@
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C141" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E141" s="2" t="n">
         <v>3336202125</v>
       </c>
-      <c r="F141" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="H141" s="2" t="s">
-        <v>427</v>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
+      <c r="H141" s="2"/>
+      <c r="I141" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="K141" s="2" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4960,22 +5394,25 @@
         <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C142" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E142" s="2" t="n">
         <v>3315928294</v>
       </c>
-      <c r="F142" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="H142" s="2" t="s">
-        <v>430</v>
+      <c r="F142" s="2"/>
+      <c r="G142" s="2"/>
+      <c r="H142" s="2"/>
+      <c r="I142" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="K142" s="2" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4983,22 +5420,25 @@
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C143" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E143" s="2" t="n">
         <v>3338233900</v>
       </c>
-      <c r="F143" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="H143" s="2" t="s">
-        <v>433</v>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2"/>
+      <c r="H143" s="2"/>
+      <c r="I143" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="K143" s="2" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5006,22 +5446,25 @@
         <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C144" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E144" s="2" t="n">
         <v>3311864651</v>
       </c>
-      <c r="F144" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="H144" s="2" t="s">
-        <v>436</v>
+      <c r="F144" s="2"/>
+      <c r="G144" s="2"/>
+      <c r="H144" s="2"/>
+      <c r="I144" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="K144" s="2" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5029,22 +5472,25 @@
         <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C145" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E145" s="2" t="n">
         <v>3318626810</v>
       </c>
-      <c r="F145" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="H145" s="2" t="s">
-        <v>439</v>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
+      <c r="H145" s="2"/>
+      <c r="I145" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="K145" s="2" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5052,22 +5498,25 @@
         <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C146" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E146" s="2" t="n">
         <v>3336661001</v>
       </c>
-      <c r="F146" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="H146" s="2" t="s">
-        <v>442</v>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2"/>
+      <c r="H146" s="2"/>
+      <c r="I146" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="K146" s="2" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5075,22 +5524,25 @@
         <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C147" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E147" s="2" t="n">
         <v>3336161800</v>
       </c>
-      <c r="F147" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="H147" s="2" t="s">
-        <v>445</v>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
+      <c r="H147" s="2"/>
+      <c r="I147" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="K147" s="2" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5098,22 +5550,25 @@
         <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C148" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E148" s="2" t="n">
         <v>3336472123</v>
       </c>
-      <c r="F148" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="H148" s="2" t="s">
-        <v>448</v>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
+      <c r="H148" s="2"/>
+      <c r="I148" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="K148" s="2" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5121,22 +5576,25 @@
         <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C149" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E149" s="2" t="n">
         <v>3338322573</v>
       </c>
-      <c r="F149" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="H149" s="2" t="s">
-        <v>451</v>
+      <c r="F149" s="2"/>
+      <c r="G149" s="2"/>
+      <c r="H149" s="2"/>
+      <c r="I149" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="K149" s="2" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5144,22 +5602,25 @@
         <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C150" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E150" s="2" t="n">
         <v>3323056363</v>
       </c>
-      <c r="F150" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="H150" s="2" t="s">
-        <v>454</v>
+      <c r="F150" s="2"/>
+      <c r="G150" s="2"/>
+      <c r="H150" s="2"/>
+      <c r="I150" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="K150" s="2" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5167,22 +5628,25 @@
         <v>150</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C151" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E151" s="2" t="n">
         <v>3324713001</v>
       </c>
-      <c r="F151" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="H151" s="2" t="s">
-        <v>457</v>
+      <c r="F151" s="2"/>
+      <c r="G151" s="2"/>
+      <c r="H151" s="2"/>
+      <c r="I151" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="K151" s="2" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5190,22 +5654,25 @@
         <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C152" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E152" s="2" t="n">
         <v>3333422424</v>
       </c>
-      <c r="F152" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="H152" s="2" t="s">
-        <v>460</v>
+      <c r="F152" s="2"/>
+      <c r="G152" s="2"/>
+      <c r="H152" s="2"/>
+      <c r="I152" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="K152" s="2" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5213,19 +5680,19 @@
         <v>152</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C153" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="H153" s="2" t="s">
-        <v>463</v>
+        <v>13</v>
+      </c>
+      <c r="I153" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="K153" s="2" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5233,22 +5700,25 @@
         <v>153</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C154" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E154" s="2" t="n">
         <v>3331228484</v>
       </c>
-      <c r="F154" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="H154" s="2" t="s">
-        <v>466</v>
+      <c r="F154" s="2"/>
+      <c r="G154" s="2"/>
+      <c r="H154" s="2"/>
+      <c r="I154" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="K154" s="2" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5256,22 +5726,25 @@
         <v>154</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C155" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E155" s="2" t="n">
         <v>3339552919</v>
       </c>
-      <c r="F155" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="H155" s="2" t="s">
-        <v>469</v>
+      <c r="F155" s="2"/>
+      <c r="G155" s="2"/>
+      <c r="H155" s="2"/>
+      <c r="I155" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="K155" s="2" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5279,22 +5752,25 @@
         <v>155</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="C156" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E156" s="2" t="n">
         <v>3316992801</v>
       </c>
-      <c r="F156" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="H156" s="2" t="s">
-        <v>472</v>
+      <c r="F156" s="2"/>
+      <c r="G156" s="2"/>
+      <c r="H156" s="2"/>
+      <c r="I156" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="K156" s="2" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5302,22 +5778,25 @@
         <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C157" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E157" s="2" t="n">
         <v>3314594541</v>
       </c>
-      <c r="F157" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="H157" s="2" t="s">
-        <v>475</v>
+      <c r="F157" s="2"/>
+      <c r="G157" s="2"/>
+      <c r="H157" s="2"/>
+      <c r="I157" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="K157" s="2" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5325,22 +5804,25 @@
         <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C158" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E158" s="2" t="n">
         <v>3318164600</v>
       </c>
-      <c r="F158" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="H158" s="2" t="s">
-        <v>478</v>
+      <c r="F158" s="2"/>
+      <c r="G158" s="2"/>
+      <c r="H158" s="2"/>
+      <c r="I158" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="K158" s="2" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5348,22 +5830,25 @@
         <v>158</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C159" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E159" s="2" t="n">
         <v>3311873153</v>
       </c>
-      <c r="F159" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="H159" s="2" t="s">
-        <v>481</v>
+      <c r="F159" s="2"/>
+      <c r="G159" s="2"/>
+      <c r="H159" s="2"/>
+      <c r="I159" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="K159" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5371,22 +5856,25 @@
         <v>159</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C160" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E160" s="2" t="n">
         <v>3336401466</v>
       </c>
-      <c r="F160" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="H160" s="2" t="s">
-        <v>484</v>
+      <c r="F160" s="2"/>
+      <c r="G160" s="2"/>
+      <c r="H160" s="2"/>
+      <c r="I160" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="K160" s="2" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5394,22 +5882,25 @@
         <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="C161" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E161" s="2" t="n">
         <v>3336615277</v>
       </c>
-      <c r="F161" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="H161" s="2" t="s">
-        <v>487</v>
+      <c r="F161" s="2"/>
+      <c r="G161" s="2"/>
+      <c r="H161" s="2"/>
+      <c r="I161" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="K161" s="2" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5417,22 +5908,25 @@
         <v>161</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C162" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E162" s="2" t="n">
         <v>3331214771</v>
       </c>
-      <c r="F162" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="H162" s="2" t="s">
-        <v>490</v>
+      <c r="F162" s="2"/>
+      <c r="G162" s="2"/>
+      <c r="H162" s="2"/>
+      <c r="I162" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="K162" s="2" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5440,22 +5934,25 @@
         <v>162</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C163" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E163" s="2" t="n">
         <v>3392272243</v>
       </c>
-      <c r="F163" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="H163" s="2" t="s">
-        <v>493</v>
+      <c r="F163" s="2"/>
+      <c r="G163" s="2"/>
+      <c r="H163" s="2"/>
+      <c r="I163" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="K163" s="2" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5463,22 +5960,25 @@
         <v>163</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C164" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E164" s="2" t="n">
         <v>3337001592</v>
       </c>
-      <c r="F164" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="H164" s="2" t="s">
-        <v>496</v>
+      <c r="F164" s="2"/>
+      <c r="G164" s="2"/>
+      <c r="H164" s="2"/>
+      <c r="I164" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="K164" s="2" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5486,22 +5986,25 @@
         <v>164</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="C165" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E165" s="2" t="n">
         <v>3324942781</v>
       </c>
-      <c r="F165" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="H165" s="2" t="s">
-        <v>499</v>
+      <c r="F165" s="2"/>
+      <c r="G165" s="2"/>
+      <c r="H165" s="2"/>
+      <c r="I165" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="K165" s="2" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5509,19 +6012,22 @@
         <v>165</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C166" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E166" s="2" t="n">
         <v>3310774757</v>
       </c>
-      <c r="F166" s="2" t="s">
-        <v>501</v>
+      <c r="F166" s="2"/>
+      <c r="G166" s="2"/>
+      <c r="H166" s="2"/>
+      <c r="I166" s="2" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5529,22 +6035,25 @@
         <v>166</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C167" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E167" s="2" t="n">
         <v>3320052206</v>
       </c>
-      <c r="F167" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="H167" s="2" t="s">
-        <v>504</v>
+      <c r="F167" s="2"/>
+      <c r="G167" s="2"/>
+      <c r="H167" s="2"/>
+      <c r="I167" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="K167" s="2" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5552,22 +6061,25 @@
         <v>167</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C168" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E168" s="2" t="n">
         <v>3331991774</v>
       </c>
-      <c r="F168" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="H168" s="2" t="s">
-        <v>507</v>
+      <c r="F168" s="2"/>
+      <c r="G168" s="2"/>
+      <c r="H168" s="2"/>
+      <c r="I168" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="K168" s="2" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5575,22 +6087,25 @@
         <v>168</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C169" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E169" s="2" t="n">
         <v>3334967453</v>
       </c>
-      <c r="F169" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="H169" s="2" t="s">
-        <v>510</v>
+      <c r="F169" s="2"/>
+      <c r="G169" s="2"/>
+      <c r="H169" s="2"/>
+      <c r="I169" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="K169" s="2" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5598,22 +6113,25 @@
         <v>169</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="C170" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E170" s="2" t="n">
         <v>3331010794</v>
       </c>
-      <c r="F170" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="H170" s="2" t="s">
-        <v>513</v>
+      <c r="F170" s="2"/>
+      <c r="G170" s="2"/>
+      <c r="H170" s="2"/>
+      <c r="I170" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="K170" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
   </sheetData>
